--- a/_posts/도서/마케팅/file/Add Keyword(s).xlsx
+++ b/_posts/도서/마케팅/file/Add Keyword(s).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhine/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\study\shina1221.github.io\_posts\도서\마케팅\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF441157-D4E8-EC48-BF1E-E9498753F201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="(Template) Add Keyword(s)" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="103">
   <si>
     <t># Optional.
  Supported values: Add; Edit; Remove.</t>
@@ -218,6 +217,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>{lpurl}.</t>
     </r>
@@ -244,16 +244,1569 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>{lpurl}.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nabled</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자이너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자이너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자이너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>액세서리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티셔츠</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티셔츠</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>청바지</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샌들</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운동화</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운동화</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>액세서리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모자</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>액세서리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가방</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>베어</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흰다</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의류</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옷</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신발</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>액세서리</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티셔츠</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반팔</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우피</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티셔츠</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>청바지</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>워키</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>청바지</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샌들</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해피</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샌들</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운동화</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스니커즈</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트리트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운동화</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모자</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소시지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모자</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가방</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드링킹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가방</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exact</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broad</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/shoes</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/accessories</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/jeans</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/t-shirts/bear-woofie-t-shirts</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/t-shirts</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/t-shirts</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/clothing/jeans/bear-walkie-jeans</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/clothing</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/clothing</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/sandals</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/shoes/sandals/bear-happy-sandals</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/trainers</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/trainers</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/shoes/trainers/bear-treat-trainers</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/hats</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/accessories/hats/bear-sausage-hats</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/bags</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heenda.com/designer/bear/accessories/bags/bear-drinking-bags</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -334,6 +1887,32 @@
       <color rgb="FF1155CC"/>
       <name val="Calibri, sans-serif"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -358,10 +1937,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -376,21 +1956,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,46 +2186,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="8" width="29.5" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="8" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="27" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="215" customHeight="1">
+    <row r="1" spans="1:27" ht="215.1" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="12"/>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="12"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="12"/>
@@ -669,7 +2253,7 @@
       <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -679,7 +2263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -750,6 +2334,970 @@
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="B3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3">
+        <v>1500</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4">
+        <v>1500</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5">
+        <v>1500</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6">
+        <v>1500</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7">
+        <v>1500</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8">
+        <v>1500</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9">
+        <v>1500</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10">
+        <v>1500</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11">
+        <v>1500</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12">
+        <v>1500</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13">
+        <v>1500</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14">
+        <v>1500</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15">
+        <v>1500</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
+      <c r="B16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16">
+        <v>1500</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17">
+        <v>1500</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18">
+        <v>1500</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19">
+        <v>1500</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20">
+        <v>1500</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21">
+        <v>1500</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22">
+        <v>1500</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23">
+        <v>1500</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26">
+        <v>1000</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27">
+        <v>1000</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29">
+        <v>1000</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30">
+        <v>1000</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31">
+        <v>1000</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M32">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34">
+        <v>1000</v>
+      </c>
+      <c r="O34" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35">
+        <v>1000</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36">
+        <v>1000</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37">
+        <v>1000</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38">
+        <v>1000</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M40">
+        <v>1000</v>
+      </c>
+      <c r="O40" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41">
+        <v>1000</v>
+      </c>
+      <c r="O41" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42">
+        <v>1000</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B43" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M43">
+        <v>1000</v>
+      </c>
+      <c r="O43" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M44">
+        <v>1000</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -757,15 +3305,58 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q1" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O7" r:id="rId4"/>
+    <hyperlink ref="O8" r:id="rId5"/>
+    <hyperlink ref="O12" r:id="rId6"/>
+    <hyperlink ref="O11" r:id="rId7"/>
+    <hyperlink ref="O10" r:id="rId8"/>
+    <hyperlink ref="O9" r:id="rId9"/>
+    <hyperlink ref="O13" r:id="rId10"/>
+    <hyperlink ref="O5" r:id="rId11"/>
+    <hyperlink ref="O6" r:id="rId12"/>
+    <hyperlink ref="O14" r:id="rId13"/>
+    <hyperlink ref="O15" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="O20" r:id="rId19"/>
+    <hyperlink ref="O21" r:id="rId20"/>
+    <hyperlink ref="O22" r:id="rId21"/>
+    <hyperlink ref="O23" r:id="rId22"/>
+    <hyperlink ref="O24" r:id="rId23"/>
+    <hyperlink ref="O25" r:id="rId24"/>
+    <hyperlink ref="O28" r:id="rId25"/>
+    <hyperlink ref="O29" r:id="rId26"/>
+    <hyperlink ref="O33" r:id="rId27"/>
+    <hyperlink ref="O32" r:id="rId28"/>
+    <hyperlink ref="O31" r:id="rId29"/>
+    <hyperlink ref="O30" r:id="rId30"/>
+    <hyperlink ref="O34" r:id="rId31"/>
+    <hyperlink ref="O26" r:id="rId32"/>
+    <hyperlink ref="O27" r:id="rId33"/>
+    <hyperlink ref="O35" r:id="rId34"/>
+    <hyperlink ref="O36" r:id="rId35"/>
+    <hyperlink ref="O37" r:id="rId36"/>
+    <hyperlink ref="O38" r:id="rId37"/>
+    <hyperlink ref="O39" r:id="rId38"/>
+    <hyperlink ref="O40" r:id="rId39"/>
+    <hyperlink ref="O41" r:id="rId40"/>
+    <hyperlink ref="O42" r:id="rId41"/>
+    <hyperlink ref="O43" r:id="rId42"/>
+    <hyperlink ref="O44" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -773,17 +3364,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="10" max="10" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -848,17 +3439,18 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -866,17 +3458,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="10" max="10" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -941,11 +3533,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>